--- a/simple-xlsx/reader/tests/test7/test7.xlsx
+++ b/simple-xlsx/reader/tests/test7/test7.xlsx
@@ -17,10 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>1、请按在行离行标识分成两张表
 2、每张表请按设备类型、日均交易笔数排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>er</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +421,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -451,6 +455,11 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
+    <row r="2" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
